--- a/trunk/jett-core/templates/ExprTestTemplate.xlsx
+++ b/trunk/jett-core/templates/ExprTestTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Cell A3</t>
   </si>
@@ -229,6 +229,18 @@
       </rPr>
       <t xml:space="preserve"> cell!</t>
     </r>
+  </si>
+  <si>
+    <t>Team:</t>
+  </si>
+  <si>
+    <t>${team}</t>
+  </si>
+  <si>
+    <t>List:</t>
+  </si>
+  <si>
+    <t>${numberList}</t>
   </si>
 </sst>
 </file>
@@ -660,6 +672,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
@@ -692,6 +712,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
@@ -707,6 +735,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/jett-core/templates/ExprTestTemplate.xlsx
+++ b/trunk/jett-core/templates/ExprTestTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Cell A3</t>
   </si>
@@ -241,6 +241,21 @@
   </si>
   <si>
     <t>${numberList}</t>
+  </si>
+  <si>
+    <t>Jett:</t>
+  </si>
+  <si>
+    <t>${jett:cellRef(16, 1)}</t>
+  </si>
+  <si>
+    <t>${jett:cellRef(16, 1, 2, 3)}</t>
+  </si>
+  <si>
+    <t>Static:</t>
+  </si>
+  <si>
+    <t>${java.lang.String.format('%s supports static method calling!', testBean2)}</t>
   </si>
 </sst>
 </file>
@@ -640,7 +655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D15"/>
+  <dimension ref="A3:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,6 +748,25 @@
         <v>15</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/trunk/jett-core/templates/ExprTestTemplate.xlsx
+++ b/trunk/jett-core/templates/ExprTestTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Cell A3</t>
   </si>
@@ -256,6 +256,51 @@
   </si>
   <si>
     <t>${java.lang.String.format('%s supports static method calling!', testBean2)}</t>
+  </si>
+  <si>
+    <t>Unclosed:</t>
+  </si>
+  <si>
+    <t>Unclosed "double quote</t>
+  </si>
+  <si>
+    <t>BigIntegers:</t>
+  </si>
+  <si>
+    <t>BigDecimals:</t>
+  </si>
+  <si>
+    <t>${biZero}</t>
+  </si>
+  <si>
+    <t>${biAnswer}</t>
+  </si>
+  <si>
+    <t>${biBiggerThanLong}</t>
+  </si>
+  <si>
+    <t>${biBiggerThanDouble}</t>
+  </si>
+  <si>
+    <t>${bdZero}</t>
+  </si>
+  <si>
+    <t>${bdAnswer}</t>
+  </si>
+  <si>
+    <t>${bdSmallerThanNormal}</t>
+  </si>
+  <si>
+    <t>${bdBiggerThanDouble}</t>
+  </si>
+  <si>
+    <t>ValueHolder:</t>
+  </si>
+  <si>
+    <t>${valueHolder.answer}</t>
+  </si>
+  <si>
+    <t>${valueHolder.IHaveAQuestion}</t>
   </si>
 </sst>
 </file>
@@ -655,11 +700,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D18"/>
+  <dimension ref="A3:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -765,6 +813,73 @@
       </c>
       <c r="B18" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/jett-core/templates/ExprTestTemplate.xlsx
+++ b/trunk/jett-core/templates/ExprTestTemplate.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="120" yWindow="120" windowWidth="17115" windowHeight="10230"/>
   </bookViews>
   <sheets>
-    <sheet name="ExprTest" sheetId="1" r:id="rId1"/>
+    <sheet name="${newSheetName}" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -702,7 +702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -885,5 +885,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;LHeader Left: ${numberList[0]}&amp;CHeader Center: ${numberList[1]}&amp;RHeader Right: ${numberList[2]}</oddHeader>
+    <oddFooter>&amp;LFooter Left: ${numberList[3]}&amp;CFooter Center: ${numberList[4]}&amp;RFooter Right: ${numberList[5]}</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/trunk/jett-core/templates/ExprTestTemplate.xlsx
+++ b/trunk/jett-core/templates/ExprTestTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Cell A3</t>
   </si>
@@ -301,6 +301,12 @@
   </si>
   <si>
     <t>${valueHolder.IHaveAQuestion}</t>
+  </si>
+  <si>
+    <t>\${testBean1}${testBean1}\${testBean2}${testBean2}</t>
+  </si>
+  <si>
+    <t>EscExprs:</t>
   </si>
 </sst>
 </file>
@@ -700,7 +706,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D29"/>
+  <dimension ref="A3:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -882,6 +888,14 @@
         <v>39</v>
       </c>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/trunk/jett-core/templates/ExprTestTemplate.xlsx
+++ b/trunk/jett-core/templates/ExprTestTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Cell A3</t>
   </si>
@@ -307,6 +307,18 @@
   </si>
   <si>
     <t>EscExprs:</t>
+  </si>
+  <si>
+    <t>Answer:</t>
+  </si>
+  <si>
+    <t>${answerToLifeTheUniverseAndEverything}</t>
+  </si>
+  <si>
+    <t>Pick A Card:</t>
+  </si>
+  <si>
+    <t>${jett:pickACard()}</t>
   </si>
 </sst>
 </file>
@@ -706,7 +718,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D30"/>
+  <dimension ref="A3:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -896,6 +908,22 @@
         <v>40</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
